--- a/MTProject/TestData/GenerateRenewalCode.xlsx
+++ b/MTProject/TestData/GenerateRenewalCode.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zameer.shaik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zameer.shaik\Desktop\TestData-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BBDA7B-16F2-467C-9EFA-B3FA98E46C82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0AFE88-2626-42F2-A0A5-76C34D85E115}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27000" windowHeight="4140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Liverpool</t>
   </si>
@@ -143,13 +143,16 @@
   </si>
   <si>
     <t>N198346</t>
+  </si>
+  <si>
+    <t>REN2 - Renewals letter (RTF)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +165,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -190,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -200,6 +209,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,12 +526,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -536,7 +548,7 @@
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -544,7 +556,7 @@
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -560,15 +572,15 @@
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
+      <c r="B5" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -576,7 +588,7 @@
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -584,7 +596,7 @@
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -592,7 +604,7 @@
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
     </row>
